--- a/Connections.xlsx
+++ b/Connections.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>N on device</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>T_IRQ</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Encoder</t>
@@ -132,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +150,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FF9900FF"/>
+        <bgColor rgb="FF9900FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -170,6 +179,12 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +496,7 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -495,7 +510,7 @@
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>23.0</v>
       </c>
     </row>
@@ -532,7 +547,7 @@
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>23.0</v>
       </c>
     </row>
@@ -585,71 +600,55 @@
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2">
-        <v>1.0</v>
-      </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2">
-        <v>11.0</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>14.0</v>
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D20" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -658,20 +657,48 @@
         <v>7</v>
       </c>
       <c r="D21" s="2">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
         <v>5.0</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="2">
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2">
         <v>13.0</v>
       </c>
     </row>
